--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13388B69-0E36-4900-AA6C-431FB35CA30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7B1CA-4EA6-429E-90CD-72CCD838EFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2160" windowWidth="27000" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ASSET</t>
   </si>
@@ -51,13 +51,19 @@
     <t>AAL</t>
   </si>
   <si>
-    <t>Sentiment</t>
+    <t>AMZN</t>
   </si>
   <si>
-    <t>15m</t>
+    <t>NAVI</t>
   </si>
   <si>
-    <t>AV</t>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>1d</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -448,7 +454,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -463,22 +469,54 @@
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="2"/>

--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7B1CA-4EA6-429E-90CD-72CCD838EFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B83A29-8964-4CF2-A163-A0F1F5E7D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ASSET</t>
   </si>
@@ -48,22 +48,16 @@
     <t>INTERVAL</t>
   </si>
   <si>
-    <t>AAL</t>
+    <t>1d</t>
   </si>
   <si>
-    <t>AMZN</t>
+    <t>JPY=X</t>
   </si>
   <si>
-    <t>NAVI</t>
+    <t>Macro</t>
   </si>
   <si>
-    <t>Yahoo</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>1d</t>
+    <t>AV</t>
   </si>
 </sst>
 </file>
@@ -415,7 +409,7 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -451,72 +445,42 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="2"/>

--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B83A29-8964-4CF2-A163-A0F1F5E7D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F0C5B-2CC2-4F53-BDF7-600EABB749EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>JPY=X</t>
   </si>
   <si>
-    <t>Macro</t>
+    <t>AV</t>
   </si>
   <si>
-    <t>AV</t>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -448,7 +448,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -460,7 +460,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>

--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F0C5B-2CC2-4F53-BDF7-600EABB749EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD605C-4671-4EFE-9087-A787473AB623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>1d</t>
   </si>
   <si>
-    <t>JPY=X</t>
+    <t>Custom</t>
   </si>
   <si>
-    <t>AV</t>
+    <t>ETH-USD</t>
   </si>
   <si>
-    <t>Custom</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -445,10 +445,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -460,7 +460,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>

--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD605C-4671-4EFE-9087-A787473AB623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45DDC7C-9BB6-4F49-8AD5-8EB97656FE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,13 @@
     <t>1d</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
     <t>ETH-USD</t>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Technical</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -445,10 +445,10 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -460,7 +460,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>

--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45DDC7C-9BB6-4F49-8AD5-8EB97656FE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C27EE6-E024-4993-A0FC-6F568AABC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -451,10 +451,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>

--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C27EE6-E024-4993-A0FC-6F568AABC0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B34E7B1-A73B-4AB2-B478-4A4FE23CA26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,16 @@
     <t>INTERVAL</t>
   </si>
   <si>
-    <t>1d</t>
+    <t>Custom</t>
   </si>
   <si>
-    <t>ETH-USD</t>
+    <t>AV</t>
   </si>
   <si>
-    <t>B</t>
+    <t>EURJPY=X</t>
   </si>
   <si>
-    <t>Technical</t>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -409,13 +409,13 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -445,25 +445,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">

--- a/run_commands/inputs/init_test.xlsx
+++ b/run_commands/inputs/init_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilsbo\PycharmProjects\plutus_lstm\run_commands\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B34E7B1-A73B-4AB2-B478-4A4FE23CA26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E679A4A-2F49-4A1B-A10C-6E807B46C1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="1605" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,16 +48,16 @@
     <t>INTERVAL</t>
   </si>
   <si>
-    <t>Custom</t>
+    <t>ETH-USD</t>
   </si>
   <si>
-    <t>AV</t>
+    <t>B</t>
   </si>
   <si>
-    <t>EURJPY=X</t>
+    <t>1d</t>
   </si>
   <si>
-    <t>1h</t>
+    <t>Custom</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:G985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -445,25 +445,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
